--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.26252770423889</v>
+        <v>73.36100387573242</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.39232993125916</v>
+        <v>73.76344466209412</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.50943005084991</v>
+        <v>37.39567732810974</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.75702977180481</v>
+        <v>69.53304314613342</v>
       </c>
     </row>
     <row r="6">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.33253085613251</v>
+        <v>43.63876557350159</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.27540659904481</v>
+        <v>73.11280727386475</v>
       </c>
     </row>
     <row r="8">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.59100651741028</v>
+        <v>48.87073397636414</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.25576555728912</v>
+        <v>49.19494867324829</v>
       </c>
     </row>
     <row r="10">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.55760312080383</v>
+        <v>58.24767446517945</v>
       </c>
     </row>
     <row r="11">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.09865188598633</v>
+        <v>71.08040952682495</v>
       </c>
     </row>
     <row r="12">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.6915962100029</v>
+        <v>14.19641149044037</v>
       </c>
     </row>
     <row r="13">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.14888668060303</v>
+        <v>43.7062349319458</v>
       </c>
     </row>
     <row r="14">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.70185065269471</v>
+        <v>57.35853505134583</v>
       </c>
     </row>
     <row r="15">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69.72939372062683</v>
+        <v>68.91257095336914</v>
       </c>
     </row>
     <row r="16">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.78611874580384</v>
+        <v>67.98245167732239</v>
       </c>
     </row>
     <row r="17">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.75759911537171</v>
+        <v>67.71481442451477</v>
       </c>
     </row>
     <row r="18">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64.85252618789673</v>
+        <v>76.18869161605835</v>
       </c>
     </row>
     <row r="19">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.73915362358094</v>
+        <v>69.2848916053772</v>
       </c>
     </row>
     <row r="20">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>71.18017482757568</v>
+        <v>70.3343391418457</v>
       </c>
     </row>
     <row r="21">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>61.24979376792908</v>
+        <v>54.79712629318237</v>
       </c>
     </row>
     <row r="22">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.15068173408508</v>
+        <v>47.25047159194946</v>
       </c>
     </row>
     <row r="23">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27.0958434343338</v>
+        <v>12.50101613998413</v>
       </c>
     </row>
     <row r="24">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.86140513420105</v>
+        <v>70.79382729530334</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.62702298164368</v>
+        <v>57.6817970275879</v>
       </c>
     </row>
     <row r="26">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.29193758964539</v>
+        <v>73.81274795532227</v>
       </c>
     </row>
     <row r="27">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73.20668888092041</v>
+        <v>58.29701638221741</v>
       </c>
     </row>
     <row r="28">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.00467371940613</v>
+        <v>77.2756814956665</v>
       </c>
     </row>
     <row r="29">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24.34841597080231</v>
+        <v>17.1245082616806</v>
       </c>
     </row>
     <row r="30">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>87.1509850025177</v>
+        <v>76.0854115486145</v>
       </c>
     </row>
     <row r="31">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63.6051573753357</v>
+        <v>70.05832052230835</v>
       </c>
     </row>
     <row r="32">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>68.82963919639587</v>
+        <v>71.97980356216431</v>
       </c>
     </row>
     <row r="33">
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54.59007692337036</v>
+        <v>39.9081883430481</v>
       </c>
     </row>
     <row r="34">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.15738254785538</v>
+        <v>7.633077144622804</v>
       </c>
     </row>
     <row r="35">
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.4218944311142</v>
+        <v>21.9249746799469</v>
       </c>
     </row>
     <row r="36">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>65.77101969718933</v>
+        <v>71.43005800247192</v>
       </c>
     </row>
     <row r="37">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.03142833709717</v>
+        <v>45.29972779750824</v>
       </c>
     </row>
     <row r="38">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>53.58496308326721</v>
+        <v>39.34059858322144</v>
       </c>
     </row>
     <row r="39">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>60.37616181373597</v>
+        <v>22.40379405021667</v>
       </c>
     </row>
     <row r="40">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.64087533950806</v>
+        <v>80.70966005325317</v>
       </c>
     </row>
     <row r="41">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>20.31987535953522</v>
+        <v>12.74711096286774</v>
       </c>
     </row>
     <row r="42">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37.3177570104599</v>
+        <v>32.80324196815491</v>
       </c>
     </row>
     <row r="43">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.75145316123962</v>
+        <v>61.91803717613221</v>
       </c>
     </row>
     <row r="44">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.31290453672409</v>
+        <v>18.67749923467636</v>
       </c>
     </row>
     <row r="45">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>41.78561127185822</v>
+        <v>54.61212468147278</v>
       </c>
     </row>
     <row r="46">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.79673838615417</v>
+        <v>20.78530192375183</v>
       </c>
     </row>
     <row r="47">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>41.12241148948669</v>
+        <v>25.89074516296387</v>
       </c>
     </row>
     <row r="48">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>27.05385935306549</v>
+        <v>16.32573246955872</v>
       </c>
     </row>
     <row r="49">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>69.12449336051941</v>
+        <v>68.68107271194458</v>
       </c>
     </row>
     <row r="50">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>75.07111167907715</v>
+        <v>71.95310163497925</v>
       </c>
     </row>
     <row r="51">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1.032475531101226</v>
+        <v>2.823624253273011</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>